--- a/aichan/546408410876155943_2021-07-12_11-03-42.xlsx
+++ b/aichan/546408410876155943_2021-07-12_11-03-42.xlsx
@@ -917,7 +917,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10799,7 +10799,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12757,7 +12757,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13850,7 +13850,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18801,7 +18801,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19034,7 +19034,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -25347,7 +25347,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25952,7 +25952,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26466,7 +26466,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26545,7 +26545,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -27051,7 +27051,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27615,7 +27615,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28969,7 +28969,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29408,7 +29408,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -30260,7 +30260,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30481,7 +30481,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -32047,7 +32047,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32127,7 +32127,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32719,7 +32719,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -33740,7 +33740,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -36263,7 +36263,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -37578,7 +37578,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -38684,7 +38684,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -39225,7 +39225,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39367,7 +39367,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -41751,7 +41751,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -42547,7 +42547,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -42839,7 +42839,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -44763,7 +44763,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -46019,7 +46019,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -46244,7 +46244,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -46690,7 +46690,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -47341,7 +47341,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47479,7 +47479,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -48663,7 +48663,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -49685,7 +49685,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -49984,7 +49984,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -50786,7 +50786,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -52571,7 +52571,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -53009,7 +53009,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -55960,7 +55960,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -60605,7 +60605,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -61501,7 +61501,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -62464,7 +62464,7 @@
         </is>
       </c>
       <c r="I849" t="n">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="J849" t="inlineStr">
         <is>
@@ -62547,7 +62547,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -63718,7 +63718,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
@@ -67083,7 +67083,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">

--- a/aichan/546408410876155943_2021-07-12_11-03-42.xlsx
+++ b/aichan/546408410876155943_2021-07-12_11-03-42.xlsx
@@ -612,7 +612,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14659,7 +14659,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14884,7 +14884,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15464,7 +15464,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18864,7 +18864,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18939,7 +18939,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19172,7 +19172,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19555,7 +19555,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -21225,7 +21225,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21438,7 +21438,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23210,7 +23210,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23289,7 +23289,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23514,7 +23514,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -24098,7 +24098,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24819,7 +24819,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -26241,7 +26241,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -27327,7 +27327,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -29818,7 +29818,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29897,7 +29897,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30027,7 +30027,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30394,7 +30394,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -31075,7 +31075,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31514,7 +31514,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31589,7 +31589,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -32269,7 +32269,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32924,7 +32924,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -33308,7 +33308,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33803,7 +33803,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -34530,7 +34530,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34952,7 +34952,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -35173,7 +35173,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -36117,7 +36117,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -36543,7 +36543,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -37127,7 +37127,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -37854,7 +37854,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -38297,7 +38297,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38601,7 +38601,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -39430,7 +39430,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -41751,7 +41751,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -42468,7 +42468,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42827,7 +42827,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -42902,7 +42902,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -43048,7 +43048,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -43490,7 +43490,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43719,7 +43719,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43857,7 +43857,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -44905,7 +44905,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -45411,7 +45411,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -45936,7 +45936,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -46232,7 +46232,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -46457,7 +46457,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -46753,7 +46753,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -46974,7 +46974,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -47767,7 +47767,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -48355,7 +48355,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -49314,7 +49314,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -49527,7 +49527,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -50770,7 +50770,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -51133,7 +51133,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -51283,7 +51283,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -52346,7 +52346,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -53211,7 +53211,7 @@
         </is>
       </c>
       <c r="I723" t="n">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="J723" t="inlineStr">
         <is>
@@ -53491,7 +53491,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -54234,7 +54234,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -54518,7 +54518,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -54894,7 +54894,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -57059,7 +57059,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -58532,7 +58532,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -59113,7 +59113,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -59472,7 +59472,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
@@ -59543,7 +59543,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -61039,7 +61039,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
@@ -62527,7 +62527,7 @@
         </is>
       </c>
       <c r="I850" t="n">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="J850" t="inlineStr">
         <is>
@@ -62891,7 +62891,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -64302,7 +64302,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
